--- a/Bucket.xlsx
+++ b/Bucket.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rudy\source\repos\GitTest\BJKST_algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E0054E-67CF-46D9-8CA4-B56A711240CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC90254-714A-4557-954B-99B910EEAC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wykres1" sheetId="2" r:id="rId1"/>
     <sheet name="Bucket" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>c</t>
   </si>
@@ -34,11 +45,26 @@
   <si>
     <t>bucket size</t>
   </si>
+  <si>
+    <t>unique elements:</t>
+  </si>
+  <si>
+    <t>b:</t>
+  </si>
+  <si>
+    <t>epsilon:</t>
+  </si>
+  <si>
+    <t>bucket size:</t>
+  </si>
+  <si>
+    <t>4*c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -534,8 +560,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3019,10 +3046,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3358,16 +3385,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E251"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J251"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E251"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3381,7 +3408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3396,8 +3423,14 @@
         <f>(1000-B2)/10</f>
         <v>23.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3412,8 +3445,14 @@
         <f t="shared" ref="E3:E66" si="1">(1000-B3)/10</f>
         <v>10.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3428,8 +3467,14 @@
         <f t="shared" si="1"/>
         <v>10.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3444,8 +3489,14 @@
         <f t="shared" si="1"/>
         <v>23.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3461,7 +3512,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3477,7 +3528,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3493,7 +3544,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3509,7 +3560,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3525,7 +3576,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3541,7 +3592,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3557,7 +3608,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3573,7 +3624,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3589,7 +3640,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3605,7 +3656,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
